--- a/Stella/Pedido_de_Viandas.xlsx
+++ b/Stella/Pedido_de_Viandas.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/Stella/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A566B15-C961-B14F-ABCC-5A0A57FBA1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D8FFBC-8D4C-4E49-A0F1-BA934E16CCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{49C4869B-1465-E745-9A13-B158A2039F0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{49C4869B-1465-E745-9A13-B158A2039F0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="18-02-2025" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="26">
   <si>
     <t>Proteina</t>
   </si>
@@ -111,6 +112,9 @@
   </si>
   <si>
     <t>Cant</t>
+  </si>
+  <si>
+    <t>Carne en Trozos</t>
   </si>
 </sst>
 </file>
@@ -146,11 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95676F9-EE39-A243-B620-D00CB30D7F75}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F31"/>
     </sheetView>
   </sheetViews>
@@ -1232,4 +1237,1037 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BAD67-9113-AA41-AC79-0F1ADD1801E6}">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>51000</v>
+      </c>
+      <c r="J3" s="2">
+        <f>I3/H3</f>
+        <v>7285.7142857142853</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B41" si="0">B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>56100</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J9" si="1">I4/H4</f>
+        <v>5610</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>78550</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>5610.7142857142853</v>
+      </c>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>112200</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>5610</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>158300</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>5276.666666666667</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>202050</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>5051.25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>296400</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41" xr:uid="{BAA6114E-9C35-5E40-9D4F-0858E3B1619D}">
+      <formula1>$N$2:$N$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A41" xr:uid="{3F09FE0C-5B90-DA45-8CBE-1AF076DE895F}">
+      <formula1>$M$2:$M$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F41" xr:uid="{9DFBB573-DB1F-BE47-ABA1-A9394BD8A821}">
+      <formula1>$P$2:$P$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41" xr:uid="{A12951F0-F735-5749-A450-ACD2EB9A4D91}">
+      <formula1>$O$2:$O$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Stella/Pedido_de_Viandas.xlsx
+++ b/Stella/Pedido_de_Viandas.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/Stella/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D8FFBC-8D4C-4E49-A0F1-BA934E16CCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E58DE-6E37-7949-A467-EA8664A08F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{49C4869B-1465-E745-9A13-B158A2039F0D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{49C4869B-1465-E745-9A13-B158A2039F0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="18-02-2025" sheetId="2" r:id="rId2"/>
+    <sheet name="24-03-2025" sheetId="3" r:id="rId3"/>
+    <sheet name="24-03-2025 (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="29">
   <si>
     <t>Proteina</t>
   </si>
@@ -115,6 +117,15 @@
   </si>
   <si>
     <t>Carne en Trozos</t>
+  </si>
+  <si>
+    <t>Carne Picada</t>
+  </si>
+  <si>
+    <t>Salteado Vegetales</t>
+  </si>
+  <si>
+    <t>Orden</t>
   </si>
 </sst>
 </file>
@@ -1243,6 +1254,2048 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BAD67-9113-AA41-AC79-0F1ADD1801E6}">
   <dimension ref="A1:P41"/>
   <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>51000</v>
+      </c>
+      <c r="J3" s="2">
+        <f>I3/H3</f>
+        <v>7285.7142857142853</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B41" si="0">B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>56100</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J9" si="1">I4/H4</f>
+        <v>5610</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>78550</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>5610.7142857142853</v>
+      </c>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>112200</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>5610</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>158300</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>5276.666666666667</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>202050</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>5051.25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>296400</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41" xr:uid="{BAA6114E-9C35-5E40-9D4F-0858E3B1619D}">
+      <formula1>$N$2:$N$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A41" xr:uid="{3F09FE0C-5B90-DA45-8CBE-1AF076DE895F}">
+      <formula1>$M$2:$M$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F41" xr:uid="{9DFBB573-DB1F-BE47-ABA1-A9394BD8A821}">
+      <formula1>$P$2:$P$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41" xr:uid="{A12951F0-F735-5749-A450-ACD2EB9A4D91}">
+      <formula1>$O$2:$O$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709ADB20-E4E8-EC4C-BFE7-C96A955A2296}">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>51000</v>
+      </c>
+      <c r="J3" s="2">
+        <f>I3/H3</f>
+        <v>7285.7142857142853</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B41" si="0">B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>56100</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J9" si="1">I4/H4</f>
+        <v>5610</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>78550</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>5610.7142857142853</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>112200</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>5610</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>158300</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>5276.666666666667</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>202050</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>5051.25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>296400</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F41" xr:uid="{9E5CC8E7-FE15-5241-B1ED-F21444EDC6B3}">
+      <formula1>$P$2:$P$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41" xr:uid="{2C2FB4EE-6FB3-B444-A300-2EFBAC97CF0E}">
+      <formula1>$O$2:$O$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A41" xr:uid="{5D07B3F5-D3CF-094D-901B-957A03AD5379}">
+      <formula1>$M$2:$M$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41" xr:uid="{C290A701-C307-4F41-947D-8642D728AD3B}">
+      <formula1>$N$2:$N$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86819F64-25E9-AC4A-AEF0-35D88CD5F25D}">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:F41"/>
     </sheetView>
@@ -1263,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1304,7 +3357,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
@@ -1337,7 +3390,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -1353,7 +3406,7 @@
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
         <v>9</v>
@@ -1380,7 +3433,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -1393,7 +3446,7 @@
         <v>5610</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
         <v>10</v>
@@ -1420,7 +3473,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -1433,7 +3486,7 @@
         <v>5610.7142857142853</v>
       </c>
       <c r="N5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O5" t="s">
         <v>11</v>
@@ -1460,7 +3513,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -1473,7 +3526,7 @@
         <v>5610</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="O6" t="s">
         <v>12</v>
@@ -1500,7 +3553,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -1512,8 +3565,14 @@
         <f t="shared" si="1"/>
         <v>5276.666666666667</v>
       </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
       <c r="O7" t="s">
         <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1534,7 +3593,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>40</v>
@@ -1568,7 +3627,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>60</v>
@@ -1599,7 +3658,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1620,7 +3679,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1632,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1641,7 +3700,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1653,7 +3712,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1662,7 +3721,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1674,7 +3733,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1683,7 +3742,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1695,7 +3754,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1704,7 +3763,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1716,7 +3775,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1725,7 +3784,7 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1737,7 +3796,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1746,7 +3805,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1758,7 +3817,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1767,7 +3826,7 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1779,7 +3838,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1788,7 +3847,7 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1800,7 +3859,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1809,7 +3868,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1821,7 +3880,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1830,7 +3889,7 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1842,16 +3901,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1863,16 +3922,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1884,16 +3943,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1905,16 +3964,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1926,16 +3985,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1947,16 +4006,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1968,16 +4027,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1989,16 +4048,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2010,16 +4069,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2031,16 +4090,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2052,19 +4111,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -2073,19 +4129,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -2094,19 +4147,16 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -2115,19 +4165,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -2136,19 +4183,16 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -2157,19 +4201,16 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -2178,19 +4219,16 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -2199,19 +4237,16 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -2220,19 +4255,16 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -2241,31 +4273,28 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41" xr:uid="{BAA6114E-9C35-5E40-9D4F-0858E3B1619D}">
-      <formula1>$N$2:$N$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41" xr:uid="{547F866A-51A7-A542-8901-98D5CC3882AD}">
+      <formula1>$N$2:$N$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A41" xr:uid="{3F09FE0C-5B90-DA45-8CBE-1AF076DE895F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A41" xr:uid="{D42192BC-859B-FA43-AA33-C3CFC2331D7B}">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F41" xr:uid="{9DFBB573-DB1F-BE47-ABA1-A9394BD8A821}">
-      <formula1>$P$2:$P$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41" xr:uid="{1CF83908-7BDA-6046-84D3-CBD4919BEC51}">
+      <formula1>$O$2:$O$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41" xr:uid="{A12951F0-F735-5749-A450-ACD2EB9A4D91}">
-      <formula1>$O$2:$O$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F41" xr:uid="{FB69D3C7-99A9-0E48-A044-AACF45B2870A}">
+      <formula1>$P$2:$P$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stella/Pedido_de_Viandas.xlsx
+++ b/Stella/Pedido_de_Viandas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/Stella/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E58DE-6E37-7949-A467-EA8664A08F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A7D09-B4BB-584E-BABF-234939311398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{49C4869B-1465-E745-9A13-B158A2039F0D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{49C4869B-1465-E745-9A13-B158A2039F0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="18-02-2025" sheetId="2" r:id="rId2"/>
     <sheet name="24-03-2025" sheetId="3" r:id="rId3"/>
-    <sheet name="24-03-2025 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="18" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="29">
   <si>
     <t>Proteina</t>
   </si>
@@ -3297,7 +3297,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F41"/>
+      <selection activeCell="B1" sqref="B1:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3348,10 +3348,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -3381,10 +3381,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -3424,10 +3424,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -3464,10 +3464,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -3504,10 +3504,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -3544,10 +3544,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -3584,10 +3584,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -3618,10 +3618,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -3649,10 +3649,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -3670,10 +3670,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -3691,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -3712,7 +3712,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -3733,7 +3733,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -3754,7 +3754,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -3775,7 +3775,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -3796,7 +3796,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -3817,7 +3817,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -3838,7 +3838,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -3859,7 +3859,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -3880,7 +3880,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -4006,7 +4006,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -4027,7 +4027,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -4111,16 +4111,19 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -4129,16 +4132,19 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -4156,7 +4162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -4174,7 +4180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -4192,7 +4198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -4210,7 +4216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -4228,7 +4234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
